--- a/lab/Entrega1/p11/Mediciones.xlsx
+++ b/lab/Entrega1/p11/Mediciones.xlsx
@@ -5,16 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/33b4c814603cc326/Escritorio/uo/2/Algoritmia/lab/Lab2/p11/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/33b4c814603cc326/Escritorio/uo/2/Algoritmia/lab/Entrega1/p11/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="77" documentId="11_C684C51F5B32C1191FE14F5265638A00D6B6960B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E66CCE67-1789-47B1-97A7-C16F69DDEC24}"/>
+  <xr:revisionPtr revIDLastSave="113" documentId="11_C684C51F5B32C1191FE14F5265638A00D6B6960B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D01BBAB6-F998-44AC-A680-1D3464C1B962}"/>
   <bookViews>
     <workbookView xWindow="-21710" yWindow="7020" windowWidth="21820" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="14">
   <si>
     <t>n</t>
   </si>
@@ -55,9 +56,6 @@
   </si>
   <si>
     <t>tmax(ms)</t>
-  </si>
-  <si>
-    <t>Fdt</t>
   </si>
   <si>
     <t>t coincidencias 1 (ms)</t>
@@ -100,15 +98,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -116,14 +120,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -406,8 +431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="E2:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -423,7 +448,7 @@
         <v>4</v>
       </c>
       <c r="K2">
-        <v>600</v>
+        <v>500</v>
       </c>
     </row>
     <row r="5" spans="5:11" x14ac:dyDescent="0.35">
@@ -446,8 +471,8 @@
         <v>9.7500000000000003E-2</v>
       </c>
       <c r="G6" s="1">
-        <f>89/$K$2</f>
-        <v>0.14833333333333334</v>
+        <f>95/1000</f>
+        <v>9.5000000000000001E-2</v>
       </c>
     </row>
     <row r="7" spans="5:11" x14ac:dyDescent="0.35">
@@ -459,8 +484,8 @@
         <v>0.15875</v>
       </c>
       <c r="G7" s="1">
-        <f>154/$K$2</f>
-        <v>0.25666666666666665</v>
+        <f>85/$K$2</f>
+        <v>0.17</v>
       </c>
     </row>
     <row r="8" spans="5:11" x14ac:dyDescent="0.35">
@@ -472,8 +497,8 @@
         <v>0.29625000000000001</v>
       </c>
       <c r="G8" s="1">
-        <f>294/$K$2</f>
-        <v>0.49</v>
+        <f>163/$K$2</f>
+        <v>0.32600000000000001</v>
       </c>
     </row>
     <row r="9" spans="5:11" x14ac:dyDescent="0.35">
@@ -485,8 +510,8 @@
         <v>0.59875</v>
       </c>
       <c r="G9" s="1">
-        <f>530/$K$2</f>
-        <v>0.8833333333333333</v>
+        <f>324/$K$2</f>
+        <v>0.64800000000000002</v>
       </c>
     </row>
     <row r="10" spans="5:11" x14ac:dyDescent="0.35">
@@ -498,8 +523,8 @@
         <v>1.2362500000000001</v>
       </c>
       <c r="G10" s="1">
-        <f>1184/$K$2</f>
-        <v>1.9733333333333334</v>
+        <f>645/$K$2</f>
+        <v>1.29</v>
       </c>
     </row>
     <row r="11" spans="5:11" x14ac:dyDescent="0.35">
@@ -511,8 +536,8 @@
         <v>2.5012500000000002</v>
       </c>
       <c r="G11" s="1">
-        <f>2174/$K$2</f>
-        <v>3.6233333333333335</v>
+        <f>1432/$K$2</f>
+        <v>2.8639999999999999</v>
       </c>
     </row>
     <row r="12" spans="5:11" x14ac:dyDescent="0.35">
@@ -524,8 +549,8 @@
         <v>4.7087500000000002</v>
       </c>
       <c r="G12" s="1">
-        <f>4242/$K$2</f>
-        <v>7.07</v>
+        <f>2702/$K$2</f>
+        <v>5.4039999999999999</v>
       </c>
     </row>
     <row r="13" spans="5:11" x14ac:dyDescent="0.35">
@@ -537,8 +562,8 @@
         <v>9.8462499999999995</v>
       </c>
       <c r="G13" s="1">
-        <f>8561/$K$2</f>
-        <v>14.268333333333333</v>
+        <f>5476/$K$2</f>
+        <v>10.952</v>
       </c>
     </row>
     <row r="14" spans="5:11" x14ac:dyDescent="0.35">
@@ -550,8 +575,8 @@
         <v>17.998750000000001</v>
       </c>
       <c r="G14" s="1">
-        <f>17327/$K$2</f>
-        <v>28.878333333333334</v>
+        <f>10664/$K$2</f>
+        <v>21.327999999999999</v>
       </c>
     </row>
     <row r="15" spans="5:11" x14ac:dyDescent="0.35">
@@ -563,8 +588,8 @@
         <v>35.847499999999997</v>
       </c>
       <c r="G15" s="1">
-        <f>37102/$K$2</f>
-        <v>61.836666666666666</v>
+        <f>21481/$K$2</f>
+        <v>42.962000000000003</v>
       </c>
     </row>
     <row r="16" spans="5:11" x14ac:dyDescent="0.35">
@@ -572,61 +597,60 @@
         <v>10240000</v>
       </c>
       <c r="F16" s="1">
-        <f>64969/$G$2</f>
-        <v>81.211250000000007</v>
+        <v>73</v>
       </c>
       <c r="G16" s="1">
-        <f>69138/$K$2</f>
-        <v>115.23</v>
+        <f>84</f>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E17">
         <v>20480000</v>
       </c>
-      <c r="F17" t="s">
-        <v>6</v>
-      </c>
-      <c r="G17" t="s">
-        <v>1</v>
+      <c r="F17" s="1">
+        <v>137</v>
+      </c>
+      <c r="G17" s="1">
+        <v>164</v>
       </c>
     </row>
     <row r="18" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E18">
         <v>40960000</v>
       </c>
-      <c r="F18" t="s">
-        <v>6</v>
-      </c>
-      <c r="G18" t="s">
-        <v>1</v>
+      <c r="F18" s="1">
+        <v>287</v>
+      </c>
+      <c r="G18" s="1">
+        <v>335</v>
       </c>
     </row>
     <row r="19" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E19">
         <v>81920000</v>
       </c>
-      <c r="F19" t="s">
-        <v>6</v>
-      </c>
-      <c r="G19" t="s">
-        <v>1</v>
+      <c r="F19" s="1">
+        <v>571</v>
+      </c>
+      <c r="G19" s="1">
+        <v>699</v>
       </c>
     </row>
     <row r="24" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E24" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" t="s">
         <v>11</v>
-      </c>
-      <c r="G24" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="26" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E26" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" t="s">
         <v>13</v>
-      </c>
-      <c r="G26" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="37" spans="9:9" x14ac:dyDescent="0.35">
@@ -642,7 +666,7 @@
   <dimension ref="C2:K19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="D4" sqref="D4:E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -654,13 +678,13 @@
   <sheetData>
     <row r="2" spans="3:11" x14ac:dyDescent="0.35">
       <c r="G2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
         <v>9</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s">
-        <v>10</v>
       </c>
       <c r="K2">
         <v>700</v>
@@ -668,10 +692,10 @@
     </row>
     <row r="4" spans="3:11" x14ac:dyDescent="0.35">
       <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
         <v>7</v>
-      </c>
-      <c r="E4" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="5" spans="3:11" x14ac:dyDescent="0.35">
@@ -683,11 +707,11 @@
       <c r="C6">
         <v>10000</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <f>613/$H$2</f>
         <v>613</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1">
         <f>74/$K$2</f>
         <v>0.10571428571428572</v>
       </c>
@@ -696,11 +720,11 @@
       <c r="C7">
         <v>20000</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <f>2438/$H$2</f>
         <v>2438</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="1">
         <f>116/$K$2</f>
         <v>0.1657142857142857</v>
       </c>
@@ -709,11 +733,11 @@
       <c r="C8">
         <v>40000</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
         <f>9580/$H$2</f>
         <v>9580</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="1">
         <f>229/$K$2</f>
         <v>0.32714285714285712</v>
       </c>
@@ -722,11 +746,11 @@
       <c r="C9">
         <v>80000</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
         <f>37567/$H$2</f>
         <v>37567</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="1">
         <f>446/$K$2</f>
         <v>0.63714285714285712</v>
       </c>
@@ -735,11 +759,11 @@
       <c r="C10">
         <v>160000</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="1">
         <f>155866/$H$2</f>
         <v>155866</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="1">
         <f>908/$K$2</f>
         <v>1.2971428571428572</v>
       </c>
@@ -748,10 +772,10 @@
       <c r="C11">
         <v>320000</v>
       </c>
-      <c r="D11" t="s">
-        <v>1</v>
-      </c>
-      <c r="E11">
+      <c r="D11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
         <f>1937/$K$2</f>
         <v>2.7671428571428573</v>
       </c>
@@ -760,10 +784,10 @@
       <c r="C12">
         <v>640000</v>
       </c>
-      <c r="D12" t="s">
-        <v>1</v>
-      </c>
-      <c r="E12">
+      <c r="D12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1">
         <f>3666/$K$2</f>
         <v>5.2371428571428575</v>
       </c>
@@ -772,10 +796,10 @@
       <c r="C13">
         <v>1280000</v>
       </c>
-      <c r="D13" t="s">
-        <v>1</v>
-      </c>
-      <c r="E13">
+      <c r="D13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1">
         <f>7545/$K$2</f>
         <v>10.778571428571428</v>
       </c>
@@ -784,10 +808,10 @@
       <c r="C14">
         <v>2560000</v>
       </c>
-      <c r="D14" t="s">
-        <v>1</v>
-      </c>
-      <c r="E14">
+      <c r="D14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1">
         <f>14961/$K$2</f>
         <v>21.372857142857143</v>
       </c>
@@ -796,10 +820,10 @@
       <c r="C15">
         <v>5120000</v>
       </c>
-      <c r="D15" t="s">
-        <v>1</v>
-      </c>
-      <c r="E15">
+      <c r="D15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1">
         <f>30277/$K$2</f>
         <v>43.252857142857145</v>
       </c>
@@ -808,10 +832,10 @@
       <c r="C16">
         <v>10240000</v>
       </c>
-      <c r="D16" t="s">
-        <v>1</v>
-      </c>
-      <c r="E16">
+      <c r="D16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1">
         <f>61410/$K$2</f>
         <v>87.728571428571428</v>
       </c>
@@ -820,33 +844,306 @@
       <c r="C17">
         <v>20480000</v>
       </c>
-      <c r="D17" t="s">
-        <v>1</v>
-      </c>
-      <c r="E17" t="s">
-        <v>1</v>
+      <c r="D17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1">
+        <v>175</v>
       </c>
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C18">
         <v>40960000</v>
       </c>
-      <c r="D18" t="s">
-        <v>1</v>
-      </c>
-      <c r="E18" t="s">
-        <v>1</v>
+      <c r="D18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1">
+        <v>351</v>
       </c>
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C19">
         <v>81920000</v>
       </c>
-      <c r="D19" t="s">
-        <v>1</v>
-      </c>
-      <c r="E19" t="s">
-        <v>1</v>
+      <c r="D19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1">
+        <v>812</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C188B12-DEE0-4BD6-BF57-775C625AF869}">
+  <dimension ref="D5:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5:H19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="7" max="8" width="18.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D6" s="4">
+        <v>10000</v>
+      </c>
+      <c r="E6" s="4">
+        <v>9.7500000000000003E-2</v>
+      </c>
+      <c r="F6" s="4">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="G6" s="4">
+        <v>613</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0.10571428571428572</v>
+      </c>
+    </row>
+    <row r="7" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D7" s="4">
+        <v>20000</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.15875</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0.17</v>
+      </c>
+      <c r="G7" s="4">
+        <v>2438</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0.1657142857142857</v>
+      </c>
+    </row>
+    <row r="8" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D8" s="4">
+        <v>40000</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.29625000000000001</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0.32600000000000001</v>
+      </c>
+      <c r="G8" s="4">
+        <v>9580</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0.32714285714285712</v>
+      </c>
+    </row>
+    <row r="9" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D9" s="4">
+        <v>80000</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.59875</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.64800000000000002</v>
+      </c>
+      <c r="G9" s="4">
+        <v>37567</v>
+      </c>
+      <c r="H9" s="4">
+        <v>0.63714285714285712</v>
+      </c>
+    </row>
+    <row r="10" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D10" s="4">
+        <v>160000</v>
+      </c>
+      <c r="E10" s="4">
+        <v>1.2362500000000001</v>
+      </c>
+      <c r="F10" s="4">
+        <v>1.29</v>
+      </c>
+      <c r="G10" s="4">
+        <v>155866</v>
+      </c>
+      <c r="H10" s="4">
+        <v>1.2971428571428572</v>
+      </c>
+    </row>
+    <row r="11" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D11" s="4">
+        <v>320000</v>
+      </c>
+      <c r="E11" s="4">
+        <v>2.5012500000000002</v>
+      </c>
+      <c r="F11" s="4">
+        <v>2.8639999999999999</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H11" s="4">
+        <v>2.7671428571428573</v>
+      </c>
+    </row>
+    <row r="12" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D12" s="4">
+        <v>640000</v>
+      </c>
+      <c r="E12" s="4">
+        <v>4.7087500000000002</v>
+      </c>
+      <c r="F12" s="4">
+        <v>5.4039999999999999</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H12" s="4">
+        <v>5.2371428571428575</v>
+      </c>
+    </row>
+    <row r="13" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D13" s="4">
+        <v>1280000</v>
+      </c>
+      <c r="E13" s="4">
+        <v>9.8462499999999995</v>
+      </c>
+      <c r="F13" s="4">
+        <v>10.952</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13" s="4">
+        <v>10.778571428571428</v>
+      </c>
+    </row>
+    <row r="14" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D14" s="4">
+        <v>2560000</v>
+      </c>
+      <c r="E14" s="4">
+        <v>17.998750000000001</v>
+      </c>
+      <c r="F14" s="4">
+        <v>21.327999999999999</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H14" s="4">
+        <v>21.372857142857143</v>
+      </c>
+    </row>
+    <row r="15" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D15" s="4">
+        <v>5120000</v>
+      </c>
+      <c r="E15" s="4">
+        <v>35.847499999999997</v>
+      </c>
+      <c r="F15" s="4">
+        <v>42.962000000000003</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15" s="4">
+        <v>43.252857142857145</v>
+      </c>
+    </row>
+    <row r="16" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D16" s="4">
+        <v>10240000</v>
+      </c>
+      <c r="E16" s="4">
+        <v>73</v>
+      </c>
+      <c r="F16" s="4">
+        <v>84</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H16" s="4">
+        <v>87.728571428571428</v>
+      </c>
+    </row>
+    <row r="17" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D17" s="4">
+        <v>20480000</v>
+      </c>
+      <c r="E17" s="4">
+        <v>137</v>
+      </c>
+      <c r="F17" s="4">
+        <v>164</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" s="4">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="18" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D18" s="4">
+        <v>40960000</v>
+      </c>
+      <c r="E18" s="4">
+        <v>287</v>
+      </c>
+      <c r="F18" s="4">
+        <v>335</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H18" s="4">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="19" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D19" s="4">
+        <v>81920000</v>
+      </c>
+      <c r="E19" s="4">
+        <v>571</v>
+      </c>
+      <c r="F19" s="4">
+        <v>699</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H19" s="4">
+        <v>812</v>
       </c>
     </row>
   </sheetData>
